--- a/input/Settings/BaseRegionClassification.xlsx
+++ b/input/Settings/BaseRegionClassification.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwieland\Github workspace\PIOLab\Settings\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f83bee742c2dd/Github_repositories/steel_supply_chain_impacts/input/Settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_9B2ACB5420E91863E31EF88C8B166BA7F5925766" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB8BCE69-58CE-4C3C-9FC3-E4E30D08E231}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseRegions" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
   <si>
     <t>Code</t>
   </si>
@@ -243,12 +255,21 @@
   </si>
   <si>
     <t>RoW EU27</t>
+  </si>
+  <si>
+    <t>Region_new</t>
+  </si>
+  <si>
+    <t>Asia and Pacific (nec)</t>
+  </si>
+  <si>
+    <t>South America (nec)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,10 +313,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -311,6 +335,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +619,7 @@
     <col min="2" max="2" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +632,11 @@
       <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -618,8 +649,11 @@
       <c r="D2" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -632,8 +666,11 @@
       <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -646,8 +683,12 @@
       <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -660,8 +701,12 @@
       <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -674,8 +719,12 @@
       <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -688,8 +737,13 @@
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -702,8 +756,13 @@
       <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -716,8 +775,13 @@
       <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -730,8 +794,12 @@
       <c r="D10" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -744,8 +812,12 @@
       <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -758,8 +830,12 @@
       <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -772,8 +848,12 @@
       <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -786,8 +866,12 @@
       <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -800,8 +884,13 @@
       <c r="D15" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -814,8 +903,12 @@
       <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -828,8 +921,12 @@
       <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -842,8 +939,13 @@
       <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -856,8 +958,13 @@
       <c r="D19" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -870,8 +977,12 @@
       <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -884,8 +995,12 @@
       <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -898,8 +1013,12 @@
       <c r="D22" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -912,8 +1031,13 @@
       <c r="D23" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -926,8 +1050,12 @@
       <c r="D24" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -940,8 +1068,12 @@
       <c r="D25" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -954,8 +1086,12 @@
       <c r="D26" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -968,8 +1104,12 @@
       <c r="D27" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -982,8 +1122,13 @@
       <c r="D28" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -996,8 +1141,12 @@
       <c r="D29" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1010,8 +1159,12 @@
       <c r="D30" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1024,8 +1177,12 @@
       <c r="D31" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1038,8 +1195,12 @@
       <c r="D32" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1052,6 +1213,17 @@
       <c r="D33" t="s">
         <v>66</v>
       </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
